--- a/vision system/100 hand measured.xlsx
+++ b/vision system/100 hand measured.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -18,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
-    <t>Cell ID</t>
-  </si>
-  <si>
     <t>Cell Length</t>
   </si>
   <si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>Right Cell Width</t>
+  </si>
+  <si>
+    <t>Cell Id</t>
   </si>
 </sst>
 </file>
@@ -400,8 +403,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -700,7 +731,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,51 +742,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2.7</v>
@@ -799,7 +830,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>3.3</v>
@@ -843,7 +874,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>2.9</v>
@@ -887,7 +918,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2.6</v>
@@ -931,7 +962,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>2.4</v>
@@ -975,7 +1006,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>2.7</v>
@@ -1019,7 +1050,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2.8</v>
@@ -1063,7 +1094,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2.7</v>
@@ -1107,7 +1138,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2.8</v>
@@ -1151,7 +1182,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>2.6</v>
@@ -1195,7 +1226,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>2.5</v>
@@ -1239,7 +1270,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>2.7</v>
@@ -1283,7 +1314,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>2.1</v>
@@ -1327,7 +1358,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>3.3</v>
@@ -1371,7 +1402,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>3.4</v>
@@ -1415,7 +1446,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>3.3</v>
@@ -1459,7 +1490,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>3.2</v>
@@ -1503,7 +1534,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>3.3</v>
@@ -1547,7 +1578,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>3.2</v>
@@ -1591,7 +1622,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>3.2</v>
@@ -1635,7 +1666,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>1.5</v>
@@ -1679,7 +1710,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>2.8</v>
@@ -1723,7 +1754,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>2.7</v>
@@ -1767,7 +1798,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>2.8</v>
@@ -1811,7 +1842,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -1855,7 +1886,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -1899,7 +1930,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>2.6</v>
@@ -1943,7 +1974,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>2.6</v>
@@ -1987,7 +2018,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>3.2</v>
@@ -2031,7 +2062,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>2.8</v>
@@ -2075,7 +2106,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>2.9</v>
@@ -2119,7 +2150,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2163,7 +2194,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>2.9</v>
@@ -2207,7 +2238,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>2.9</v>
@@ -2251,7 +2282,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -2295,7 +2326,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -2339,7 +2370,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -2383,7 +2414,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -2427,7 +2458,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -2471,7 +2502,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2515,7 +2546,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -2559,7 +2590,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>2.9</v>
@@ -2603,7 +2634,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>3.1</v>
@@ -2647,7 +2678,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -2691,7 +2722,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -2735,7 +2766,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>2.2000000000000002</v>
@@ -2779,7 +2810,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>2.8</v>
@@ -2823,7 +2854,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>2.7</v>
@@ -2867,7 +2898,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>2.5</v>
@@ -2911,7 +2942,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>2.5</v>
@@ -2955,7 +2986,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>2.6</v>
@@ -2999,7 +3030,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>2.7</v>
@@ -3043,7 +3074,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>2.9</v>
@@ -3087,7 +3118,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>2.8</v>
@@ -3131,7 +3162,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>3</v>
@@ -3175,7 +3206,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>2.8</v>
@@ -3219,7 +3250,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>2.6</v>
@@ -3263,7 +3294,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>2.7</v>
@@ -3307,7 +3338,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>2.7</v>
@@ -3351,7 +3382,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>3</v>
@@ -3395,7 +3426,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>2.6</v>
@@ -3439,7 +3470,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>2.8</v>
@@ -3483,7 +3514,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -3527,7 +3558,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>2.9</v>
@@ -3571,7 +3602,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>2.9</v>
@@ -3615,7 +3646,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>2.8</v>
@@ -3659,7 +3690,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>2.9</v>
@@ -3703,7 +3734,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>2.7</v>
@@ -3747,7 +3778,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>2.5</v>
@@ -3791,7 +3822,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>2.8</v>
@@ -3835,7 +3866,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>2.7</v>
@@ -3879,7 +3910,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>2.8</v>
@@ -3923,7 +3954,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>3</v>
@@ -3967,7 +3998,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>2.8</v>
@@ -4011,7 +4042,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>2.7</v>
@@ -4055,7 +4086,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>2.9</v>
@@ -4099,7 +4130,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>2.8</v>
@@ -4143,7 +4174,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>2.7</v>
@@ -4187,7 +4218,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>2.6</v>
@@ -4231,7 +4262,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>2.8</v>
@@ -4275,7 +4306,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>2.8</v>
@@ -4319,7 +4350,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>2.9</v>
@@ -4363,7 +4394,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>3.1</v>
@@ -4407,7 +4438,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
@@ -4451,7 +4482,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>3</v>
@@ -4495,7 +4526,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>3</v>
@@ -4539,7 +4570,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>2.9</v>
@@ -4583,7 +4614,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4627,7 +4658,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>3</v>
@@ -4671,7 +4702,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>2.8</v>
@@ -4715,7 +4746,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>2.8</v>
@@ -4759,7 +4790,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>2.6</v>
@@ -4803,7 +4834,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>2.6</v>
@@ -4847,7 +4878,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>2.9</v>
@@ -4891,7 +4922,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>2.9</v>
@@ -4935,7 +4966,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>2.7</v>
@@ -4979,7 +5010,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>2.7</v>
@@ -5023,7 +5054,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>3</v>
@@ -5067,7 +5098,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>2.7</v>
@@ -5111,7 +5142,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>2.9</v>
